--- a/Test Data/Procurement.xlsx
+++ b/Test Data/Procurement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690410B6-9FC9-48D0-AFCA-172A6A09A6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6686064-02C5-4394-BC70-38F380A75144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{2F57C2A4-D20C-49EB-A9FD-A4CD695E1DC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{2F57C2A4-D20C-49EB-A9FD-A4CD695E1DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -263,43 +263,70 @@
     <t>Email Scanning - Procurement</t>
   </si>
   <si>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
     <t>Amazon Order - Item Count</t>
   </si>
   <si>
     <t>Amazon Order - Order Count</t>
   </si>
   <si>
-    <t>Stationary Order  - Item Count</t>
-  </si>
-  <si>
-    <t>Stationary Order (Including Email Response) -  Order Count</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gg</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Textarea</t>
+    <t>Procurement Pending IR Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Items Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Order Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify No. Of Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Stationary Order (Including Email Response) - Order Count</t>
+  </si>
+  <si>
+    <t>Stationary Order - Item Count</t>
   </si>
 </sst>
 </file>
@@ -370,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1082,486 +1106,377 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58F9A6E-B79A-40E7-8D09-0CBFD34555C4}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="43.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
       <c r="D2"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
+      <c r="C24" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
+      <c r="C32" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
+      <c r="C44" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
